--- a/Assets/Designs/General/StringConst.xlsx
+++ b/Assets/Designs/General/StringConst.xlsx
@@ -11,17 +11,36 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>Content</t>
+  </si>
+  <si>
+    <t>bLocked</t>
+  </si>
+  <si>
+    <t>AlterContent</t>
   </si>
   <si>
     <t>int</t>
@@ -30,25 +49,22 @@
     <t>string</t>
   </si>
   <si>
-    <t>Rapid-fired projectile influenced by gravity</t>
+    <t>bool</t>
   </si>
   <si>
-    <t>Bursting small bullets with less damage</t>
+    <t>Shooting Range: Aim and destory targets to gain score</t>
   </si>
   <si>
-    <t>Laser with high damage and low ROF</t>
+    <t>???</t>
   </si>
   <si>
-    <t>Launching missiles dealing great damage</t>
-  </si>
-  <si>
-    <t>Shooting bullets with proximity fuze</t>
+    <t>PLACE_HOLDER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -208,18 +224,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -546,7 +556,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,16 +580,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -588,85 +598,85 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -677,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,71 +1001,87 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="2" max="2" width="111.111111111111" customWidth="1"/>
+    <col min="3" max="3" width="41.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="30.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assets/Designs/General/StringConst.xlsx
+++ b/Assets/Designs/General/StringConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>PLACE_HOLDER</t>
+  </si>
+  <si>
+    <t>Are you sure to flash back to the previous day?</t>
+  </si>
+  <si>
+    <t>Are you sure to flash back to the morning of today?</t>
+  </si>
+  <si>
+    <t>Are you sure to quit to the main menu? Unsaved game progress may be lost.</t>
   </si>
 </sst>
 </file>
@@ -1001,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="111.111111111111" customWidth="1"/>
@@ -1082,6 +1091,48 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assets/Designs/General/StringConst.xlsx
+++ b/Assets/Designs/General/StringConst.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -52,12 +52,15 @@
     <t>bool</t>
   </si>
   <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
     <t>Shooting Range: Aim and destory targets to gain score</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>PLACE_HOLDER</t>
   </si>
   <si>
@@ -68,6 +71,30 @@
   </si>
   <si>
     <t>Are you sure to quit to the main menu? Unsaved game progress may be lost.</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Connectio Check</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Weird Guy</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Cat Owner</t>
   </si>
 </sst>
 </file>
@@ -1010,16 +1037,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="111.111111111111" customWidth="1"/>
+    <col min="2" max="2" width="83.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="41.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="30.7777777777778" customWidth="1"/>
   </cols>
@@ -1054,7 +1081,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1068,13 +1095,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1082,10 +1109,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1096,13 +1123,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1110,7 +1137,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1124,7 +1151,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1133,6 +1160,132 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>998</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1020</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1021</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assets/Designs/General/StringConst.xlsx
+++ b/Assets/Designs/General/StringConst.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -73,22 +73,34 @@
     <t>Are you sure to quit to the main menu? Unsaved game progress may be lost.</t>
   </si>
   <si>
+    <t>Connection Check</t>
+  </si>
+  <si>
     <t>Rules</t>
   </si>
   <si>
-    <t>Connectio Check</t>
-  </si>
-  <si>
     <t>Guide</t>
   </si>
   <si>
-    <t>Sponsor</t>
+    <t>Dove \"the Sponsor\"</t>
   </si>
   <si>
     <t>Friend</t>
   </si>
   <si>
     <t>Weird Guy</t>
+  </si>
+  <si>
+    <t>Chesteria \"Armada\"</t>
+  </si>
+  <si>
+    <t>Darlan \"Nuclear Reactor\"</t>
+  </si>
+  <si>
+    <t>Lanuarius</t>
+  </si>
+  <si>
+    <t>Francois</t>
   </si>
   <si>
     <t>Cat</t>
@@ -1037,10 +1049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1179,7 +1191,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1193,7 +1205,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1263,7 +1275,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1020</v>
+        <v>1004</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1277,7 +1289,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1289,7 +1301,66 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1007</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1021</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A3:D19">
+    <sortCondition ref="A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Assets/Designs/General/StringConst.xlsx
+++ b/Assets/Designs/General/StringConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13500"/>
+    <workbookView windowWidth="19200" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Cat Owner</t>
+  </si>
+  <si>
+    <t>Samantha</t>
   </si>
 </sst>
 </file>
@@ -1049,18 +1052,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="30.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="83.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="41.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="30.5575221238938" customWidth="1"/>
+    <col min="2" max="2" width="83.5575221238938" customWidth="1"/>
+    <col min="3" max="3" width="41.3362831858407" customWidth="1"/>
+    <col min="4" max="4" width="30.7787610619469" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1191,10 +1194,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>998</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1205,10 +1208,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1219,10 +1222,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1233,10 +1236,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1247,10 +1250,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1261,10 +1264,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1275,10 +1278,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1289,10 +1292,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1303,10 +1306,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1317,10 +1320,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1331,10 +1334,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1345,15 +1348,43 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
+        <v>1020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>1021</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1376,7 +1407,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1393,7 +1424,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Designs/General/StringConst.xlsx
+++ b/Assets/Designs/General/StringConst.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -97,10 +97,13 @@
     <t>Darlan \"Nuclear Reactor\"</t>
   </si>
   <si>
-    <t>Lanuarius</t>
+    <t>Lanuarius \"Fire of January\"</t>
   </si>
   <si>
     <t>Francois</t>
+  </si>
+  <si>
+    <t>Veronique</t>
   </si>
   <si>
     <t>Cat</t>
@@ -1052,10 +1055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -1362,7 +1365,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1376,7 +1379,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1385,6 +1388,20 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>8</v>
       </c>
     </row>
